--- a/Data/Reporte.xlsx
+++ b/Data/Reporte.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <x:si>
     <x:t>Categoria</x:t>
   </x:si>
@@ -70,73 +70,32 @@
     <x:t>fospina</x:t>
   </x:si>
   <x:si>
-    <x:t>Resumen de prueba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Descripcion de prueba</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C:\Users\miguel.mejia.SOPHOS\Documents\UiPath\RegistroIncidenteMantis\Data\IncidentePrueba.xlsx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12591</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Resumen de prueba 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Descripcion de prueba 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12592</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12593</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Resumen de prueba 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Descripcion de prueba 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12594</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12595</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Resumen de prueba 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Descripcion de prueba 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12596</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12597</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Resumen de prueba 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Descripcion de prueba 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12598</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12599</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Resumen de prueba 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Descripcion de prueba 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12600</x:t>
+    <x:t xml:space="preserve">INC_AUT_EBK_025 Incosistencia de datos </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Incosistencia de datos BICE vs Finacle en el siguiente campo:
+Vencimiento de la Linea
+Pasos a reproducir: 
+Login Finacle con RUT:  126415265
+Navegar a Cuenta Corriente Saldos Pesos
+Ingresar a la cuenta: Cta Cte PESOS
+Ingresar a la cuenta: SEG CUENTA PESOS
+Ingresar a la cuenta: BIA CTA INVER
+Ingresar a la cuenta: Cta Corriente 1
+Ingresar a la cuenta: BIA CTA INVER
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C:\Users\faber.ospina\Documents\UiPath\EBK_025_Finacle_Saldos_DEV\Data\EBK_025_RUT_126415265_13_12_2019_11_49.zip</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12794</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12795</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12796</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -487,7 +446,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K11"/>
+  <x:dimension ref="A1:K4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -586,16 +545,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:11">
@@ -630,252 +589,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="K4" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:11">
-      <x:c r="A5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="K5" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:11">
-      <x:c r="A6" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J6" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="K6" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:11">
-      <x:c r="A7" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="J7" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="K7" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:11">
-      <x:c r="A8" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J8" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="K8" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:11">
-      <x:c r="A9" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="J9" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="K9" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:11">
-      <x:c r="A10" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J10" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="K10" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:11">
-      <x:c r="A11" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="J11" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="K11" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
